--- a/Multiple_trends/Code/data/datastream_variables.xlsx
+++ b/Multiple_trends/Code/data/datastream_variables.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\80116mkh\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveeur-my.sharepoint.com/personal/80116mkh_eur_nl/Documents/Documents/multiscale_inference/Multiple_trends/Code/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3AC4070-A749-43B2-9A60-83652BEAABD8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{D3AC4070-A749-43B2-9A60-83652BEAABD8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{BAB6496F-292B-4284-AC7B-44A472EA1649}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1980" windowWidth="21600" windowHeight="11070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="312" windowWidth="23256" windowHeight="12156" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Search_1637165465720" sheetId="1" r:id="rId1"/>
+    <sheet name="Employment" sheetId="1" r:id="rId1"/>
+    <sheet name="GDP" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="86">
   <si>
     <t>Name</t>
   </si>
@@ -259,6 +260,36 @@
   </si>
   <si>
     <t>Tunisia, Employment, Volume</t>
+  </si>
+  <si>
+    <t>aCNWDDEU9C</t>
+  </si>
+  <si>
+    <t>aCYWDDEU9C</t>
+  </si>
+  <si>
+    <t>Constant prices,not seasonally adjusted</t>
+  </si>
+  <si>
+    <t>Money</t>
+  </si>
+  <si>
+    <t>GDP by Expenditure</t>
+  </si>
+  <si>
+    <t>Cyprus, GDP per capita, Constant Prices</t>
+  </si>
+  <si>
+    <t>aPACGDPD/CA</t>
+  </si>
+  <si>
+    <t>Constant prices,seasonally adjusted</t>
+  </si>
+  <si>
+    <t>Panama, GDP, Standardized (based on source annual data), Constant Prices</t>
+  </si>
+  <si>
+    <t>China (Mainland), GDP per capita, Constant Prices</t>
   </si>
 </sst>
 </file>
@@ -639,23 +670,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19:H21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="50" customWidth="1"/>
-    <col min="2" max="2" width="18.5" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="4" width="22.83203125" customWidth="1"/>
-    <col min="5" max="5" width="12.83203125" customWidth="1"/>
-    <col min="6" max="6" width="22.83203125" customWidth="1"/>
-    <col min="7" max="7" width="17.83203125" customWidth="1"/>
-    <col min="8" max="8" width="21.5" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1"/>
+    <col min="6" max="6" width="22.85546875" customWidth="1"/>
+    <col min="7" max="7" width="17.85546875" customWidth="1"/>
+    <col min="8" max="8" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1201,6 +1232,138 @@
       </c>
       <c r="H22" s="2" t="s">
         <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB696FF9-04CA-4254-87AE-5B0576DCBCEE}">
+  <dimension ref="A1:M4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H2:H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="62" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="1">
+        <v>21916</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="1">
+        <v>27395</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="1">
+        <v>22190</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
